--- a/biology/Botanique/Biebersteiniaceae/Biebersteiniaceae.xlsx
+++ b/biology/Botanique/Biebersteiniaceae/Biebersteiniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Biebersteiniacées est une petite famille de plantes dicotylédones
 La famille ne comprend que 5 espèces du genre Biebersteinia.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Biebersteinia, hommage au botaniste allemand Friedrich Marschall von Bieberstein  (1768–1826). Il collecta des plantes dans le Caucase et en Crimée, et est l'auteur d'un ouvrage botanique Flora Taurico Caucasica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Biebersteinia, hommage au botaniste allemand Friedrich Marschall von Bieberstein  (1768–1826). Il collecta des plantes dans le Caucase et en Crimée, et est l'auteur d'un ouvrage botanique Flora Taurico Caucasica.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] le genre Biebersteinia est assigné aux Géraniacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) le genre Biebersteinia est assigné aux Géraniacées.
 La classification phylogénétique situe cette famille dans l'ordre des Sapindales.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 juin 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 juin 2010) :
 genre Biebersteinia
 Biebersteinia heterostemon
 Biebersteinia multifida
